--- a/ozone/multistate/ozone_VTZP_MS_1_SHAP.xlsx
+++ b/ozone/multistate/ozone_VTZP_MS_1_SHAP.xlsx
@@ -455,85 +455,85 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0007428279231781247</v>
+        <v>0.0008499769757567039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$type_3$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0004727005439213413</v>
+        <v>0.0004561693573892375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>$type_3$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0004029507644850241</v>
+        <v>0.0004543786298145318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$F_{q}^{\text{SCF}}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0004019229369233241</v>
+        <v>0.0003788309784829782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0003180347637788836</v>
+        <v>0.0003563395287855474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003096940618767308</v>
+        <v>0.0003217688176126263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0002831576062260089</v>
+        <v>0.0003073227936501762</v>
       </c>
     </row>
     <row r="9">
@@ -546,33 +546,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002525908399310809</v>
+        <v>0.0002563558605626919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002278132381307538</v>
+        <v>0.0002438349205818265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002074295914029995</v>
+        <v>0.0001887520995512634</v>
       </c>
     </row>
     <row r="12">
@@ -585,59 +585,59 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002002620453637754</v>
+        <v>0.0001775950908333188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.000185460772538414</v>
+        <v>0.0001775365673645089</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001823714111376823</v>
+        <v>0.0001758155519593401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001798656698714199</v>
+        <v>0.0001714637846801458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001686260802836892</v>
+        <v>0.000165164996168383</v>
       </c>
     </row>
     <row r="17">
@@ -650,33 +650,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.000168397380128467</v>
+        <v>0.0001620844408281922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001584787379830493</v>
+        <v>0.0001602478897092596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000149719131939222</v>
+        <v>0.0001554307497255988</v>
       </c>
     </row>
     <row r="20">
@@ -689,202 +689,202 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001444712260118127</v>
+        <v>0.0001345346445289451</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{3}$</t>
+          <t>$type_2$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001337018834513936</v>
+        <v>0.0001332426067303198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$type_2$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001261582493190096</v>
+        <v>0.0001288644441542039</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>(h$_{p}$)$_{3}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0001076660325017063</v>
+        <v>0.0001284353598029245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0001007596101591657</v>
+        <v>0.0001123687270653414</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$\langle qq \vert qq \rangle$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0001000094641515952</v>
+        <v>0.0001105939853085517</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.914081848885863e-05</v>
+        <v>0.0001090026753805361</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$type_1$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.396698047258808e-05</v>
+        <v>9.717791371858446e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.234885471306515e-05</v>
+        <v>9.634565436469723e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.205414665365863e-05</v>
+        <v>9.606605988620236e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.1114171197733e-05</v>
+        <v>8.44472143294152e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>(h$_{r}$)$_{2}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.983895168312864e-05</v>
+        <v>7.933319151303542e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$\langle ss \vert ss \rangle$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.505956844710399e-05</v>
+        <v>7.416324441171538e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.326348674886132e-05</v>
+        <v>7.325224228510406e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{2}$</t>
+          <t>$type_1$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.285336434768032e-05</v>
+        <v>7.245785522594838e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>(h$_{p}$)$_{1}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.085284173854697e-05</v>
+        <v>7.13253567881264e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,59 +897,59 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.080244053378884e-05</v>
+        <v>7.099374432763763e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.076326196265915e-05</v>
+        <v>7.005437396997851e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.013522425095229e-05</v>
+        <v>6.879098881469118e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{2}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.916354989323835e-05</v>
+        <v>6.81481937215125e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.777164793979107e-05</v>
+        <v>6.465894834958006e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,137 +962,137 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.554099941204264e-05</v>
+        <v>5.653427533182156e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.371008971112996e-05</v>
+        <v>5.635617598101792e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5.284634442500423e-05</v>
+        <v>4.99583547048186e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.088592042592384e-05</v>
+        <v>4.98166000144952e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$type_0$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5.006039150291928e-05</v>
+        <v>4.765880823564973e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{3}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.935852818874962e-05</v>
+        <v>4.507734445419462e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.918422921848248e-05</v>
+        <v>4.319605968776475e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.87372459034883e-05</v>
+        <v>4.162587924362769e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.54235625849044e-05</v>
+        <v>3.87337109017914e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.394699123747686e-05</v>
+        <v>3.848807134227904e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.220276005751041e-05</v>
+        <v>3.641207525002049e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1105,111 +1105,111 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4.064828948548784e-05</v>
+        <v>3.576686647933916e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.830670750403705e-05</v>
+        <v>3.546761821975691e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.670825220383875e-05</v>
+        <v>3.271789194387959e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.028266826797755e-05</v>
+        <v>3.165202789891185e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.964549697882067e-05</v>
+        <v>3.146593114422032e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$type_0$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.942556427933689e-05</v>
+        <v>2.772716126924535e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.82720703903139e-05</v>
+        <v>2.737094971596488e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{1}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.77294412973522e-05</v>
+        <v>2.708278640827831e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.73602165086393e-05</v>
+        <v>2.684963683331728e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,124 +1222,124 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.645552257221059e-05</v>
+        <v>2.682070760911343e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.566328496179829e-05</v>
+        <v>2.56986684814162e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{0}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.532880887562892e-05</v>
+        <v>2.485971569905793e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.518229274923493e-05</v>
+        <v>2.452508105100876e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.505094551896172e-05</v>
+        <v>2.352193818562459e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2.353978819603938e-05</v>
+        <v>2.332255778683715e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2.275982782160592e-05</v>
+        <v>2.218594418774966e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.250212622409682e-05</v>
+        <v>2.161155314832476e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.233838589454161e-05</v>
+        <v>2.095233869265377e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2.179147654775394e-05</v>
+        <v>1.940057187436984e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1352,228 +1352,228 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.946162596319002e-05</v>
+        <v>1.889073169796205e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.87896430383095e-05</v>
+        <v>1.853918285216166e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>(h$_{pq}$)$_{2}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.644932097884887e-05</v>
+        <v>1.773009420793315e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.577547335964965e-05</v>
+        <v>1.747253438791914e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.525365397854313e-05</v>
+        <v>1.466569459913547e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.311500448901575e-05</v>
+        <v>1.436333423676095e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.242565347675025e-05</v>
+        <v>1.431582195598009e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{1}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.218628588568885e-05</v>
+        <v>1.25552078796852e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.208984419908473e-05</v>
+        <v>1.094253192414687e-05</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.032620815063566e-05</v>
+        <v>9.50510187775237e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9.843359799854832e-06</v>
+        <v>7.480363564047325e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.753700886208941e-06</v>
+        <v>7.287443433666175e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6.531001544401367e-06</v>
+        <v>6.881474062329375e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{2}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6.064627190591559e-06</v>
+        <v>6.699343045112138e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5.949917177974762e-06</v>
+        <v>6.240724536120891e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{0}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5.932996343727692e-06</v>
+        <v>5.745681693046206e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>(h$_{rs}$)$_{1}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5.569701769747281e-06</v>
+        <v>4.220582137925642e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5.111143508239698e-06</v>
+        <v>3.918066007953526e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.082922725545689e-06</v>
+        <v>3.041084303118804e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1599,137 +1599,137 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.352500900316949e-07</v>
+        <v>6.599353978229506e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6.487831171732617e-08</v>
+        <v>5.416566893824147e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6.12575204942444e-08</v>
+        <v>5.035607016687342e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5.978408945426814e-08</v>
+        <v>5.01307976269214e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5.782103195094011e-08</v>
+        <v>4.975231230434235e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5.291388493381373e-08</v>
+        <v>4.518315799558374e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5.07806989316903e-08</v>
+        <v>4.315708556895605e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4.6409156756969e-08</v>
+        <v>4.23009393374402e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4.573098934088684e-08</v>
+        <v>3.918088937260664e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3.773101746448254e-08</v>
+        <v>3.689424338254456e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3.755171587706864e-08</v>
+        <v>2.919708144374086e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1742,20 +1742,20 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2.461223119721588e-08</v>
+        <v>2.510818760185401e-08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.039299069573965e-08</v>
+        <v>2.292046548338125e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.368478994747213e-08</v>
+        <v>1.878676297794953e-08</v>
       </c>
     </row>
   </sheetData>
